--- a/data/trans_bre/P3A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,43; 55,59</t>
+          <t>49,27; 56,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,23; 55,23</t>
+          <t>48,46; 55,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,23; 52,43</t>
+          <t>44,07; 52,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,38; 33,5</t>
+          <t>24,78; 33,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>388,27; 603,34</t>
+          <t>386,46; 626,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>389,01; 640,21</t>
+          <t>401,07; 647,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>242,4; 390,15</t>
+          <t>242,61; 383,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,37; 65,29</t>
+          <t>42,19; 64,43</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,56; 47,03</t>
+          <t>41,84; 47,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,79; 48,37</t>
+          <t>42,65; 48,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,49; 43,93</t>
+          <t>38,38; 44,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,74; 34,41</t>
+          <t>25,68; 33,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>526,6; 814,23</t>
+          <t>529,0; 817,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>455,0; 677,23</t>
+          <t>446,52; 665,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>271,39; 375,43</t>
+          <t>267,02; 378,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,54; 59,07</t>
+          <t>38,58; 57,76</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,89; 34,42</t>
+          <t>24,11; 34,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,57; 34,06</t>
+          <t>22,32; 33,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,85; 30,07</t>
+          <t>19,44; 30,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 23,09</t>
+          <t>13,86; 22,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>207,2; 468,0</t>
+          <t>217,93; 495,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>153,07; 354,75</t>
+          <t>145,84; 359,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,57; 189,32</t>
+          <t>90,25; 197,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,57; 33,44</t>
+          <t>18,45; 33,34</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,54; 47,47</t>
+          <t>43,64; 47,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,65; 47,79</t>
+          <t>43,79; 47,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,99; 43,01</t>
+          <t>39,0; 43,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,14; 30,09</t>
+          <t>24,14; 29,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>463,63; 623,0</t>
+          <t>462,41; 623,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>426,54; 568,29</t>
+          <t>423,92; 555,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>252,51; 320,99</t>
+          <t>252,27; 322,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,64; 49,33</t>
+          <t>36,47; 49,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P3A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,27; 56,04</t>
+          <t>48,94; 55,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,46; 55,32</t>
+          <t>48,15; 55,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,07; 52,67</t>
+          <t>44,58; 53,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>386,46; 626,47</t>
+          <t>391,12; 615,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>401,07; 647,76</t>
+          <t>396,92; 673,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>242,61; 383,58</t>
+          <t>247,02; 396,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,84; 47,49</t>
+          <t>41,64; 47,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,65; 48,04</t>
+          <t>42,63; 48,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,38; 44,18</t>
+          <t>38,47; 43,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>529,0; 817,88</t>
+          <t>526,69; 817,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>446,52; 665,04</t>
+          <t>450,76; 674,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>267,02; 378,7</t>
+          <t>267,01; 370,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,11; 34,42</t>
+          <t>23,63; 33,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,32; 33,83</t>
+          <t>22,68; 33,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,44; 30,62</t>
+          <t>19,2; 30,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>217,93; 495,99</t>
+          <t>213,91; 481,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>145,84; 359,13</t>
+          <t>156,27; 357,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>90,25; 197,44</t>
+          <t>89,62; 199,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,64; 47,7</t>
+          <t>43,53; 47,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,79; 47,64</t>
+          <t>43,78; 47,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,0; 43,04</t>
+          <t>38,76; 43,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>462,41; 623,16</t>
+          <t>466,28; 628,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>423,92; 555,96</t>
+          <t>424,47; 561,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>252,27; 322,57</t>
+          <t>251,37; 323,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P3A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tareas del hogar realizadas por el/la entrevistado/a</t>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>52,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>51,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>48,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>486,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>506,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>309,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,55%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,94; 55,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,15; 55,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,58; 53,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,78; 33,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>391,12; 615,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>396,92; 673,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>247,02; 396,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,19; 64,43</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>44,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>651,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>549,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>318,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,64; 47,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,63; 48,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,47; 43,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,68; 33,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>526,69; 817,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>450,76; 674,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>267,01; 370,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,58; 57,76</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>323,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>237,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>135,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,63; 33,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,68; 33,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,2; 30,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,86; 22,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>213,91; 481,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>156,27; 357,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,62; 199,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,45; 33,34</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>45,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>541,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>490,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>283,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,03%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,53; 47,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,78; 47,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,76; 43,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,14; 29,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>466,28; 628,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>424,47; 561,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>251,37; 323,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,47; 49,38</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
